--- a/Test_Data.xlsx
+++ b/Test_Data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sandeep\com.flipkart\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="5208"/>
   </bookViews>
   <sheets>
     <sheet name="MobileSearch" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MobileSearch!$A$1:$F$56</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="129">
   <si>
     <t>Product</t>
   </si>
@@ -53,20 +53,371 @@
     <t>Nokia</t>
   </si>
   <si>
-    <t>Nokia 6.2 (Black, 64 GB)</t>
-  </si>
-  <si>
     <t>Vivo</t>
   </si>
   <si>
     <t>Vivo Z1x (Phantom Purple, 128 GB)</t>
+  </si>
+  <si>
+    <t>Nokia 7.2 (Ice, 64 GB)</t>
+  </si>
+  <si>
+    <t>Vivo Z1x (Phantom Purple, 64 GB)</t>
+  </si>
+  <si>
+    <t>Vivo Z1x (Fusion Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>Vivo Z1x (Fusion Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>Vivo Z1Pro (Sonic Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>6 GB</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy M01 (Blue, 32 GB)</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>3 GB</t>
+  </si>
+  <si>
+    <t>2 GB</t>
+  </si>
+  <si>
+    <t>Panasonic ELUGA I6 (Black, 16 GB)</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy J2 Core (Blue, 16 GB)</t>
+  </si>
+  <si>
+    <t>1 GB</t>
+  </si>
+  <si>
+    <t>512 MB - 1 GB</t>
+  </si>
+  <si>
+    <t>Lava</t>
+  </si>
+  <si>
+    <t>Lava GEM</t>
+  </si>
+  <si>
+    <t>Less than 512 MB</t>
+  </si>
+  <si>
+    <t>Apple iPhone SE (Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Redmi</t>
+  </si>
+  <si>
+    <t>Redmi Note 8 Pro (Halo White, 128 GB)</t>
+  </si>
+  <si>
+    <t>Realme 5 Pro (Crystal Green, 128 GB)</t>
+  </si>
+  <si>
+    <t>Realme</t>
+  </si>
+  <si>
+    <t>Realme C3 (Frozen Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>Realme X (Polar White, 128 GB)</t>
+  </si>
+  <si>
+    <t>Redmi K20 (Flame Red, 128 GB)</t>
+  </si>
+  <si>
+    <t>Redmi Note 8 (Neptune Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>Mi</t>
+  </si>
+  <si>
+    <t>Mi A3 (Kind of Grey, 128 GB)</t>
+  </si>
+  <si>
+    <t>Redmi Note 8 Pro (Gamma Green, 64 GB)</t>
+  </si>
+  <si>
+    <t>Redmi Note 6 Pro (Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>POCO X2 (Matrix Purple, 128 GB)</t>
+  </si>
+  <si>
+    <t>POCO</t>
+  </si>
+  <si>
+    <t>POCO F1 (Graphite Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>iQOO</t>
+  </si>
+  <si>
+    <t>iQOO 3 (Tornado Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>iQOO 3 (Volcano Orange, 256 GB)</t>
+  </si>
+  <si>
+    <t>OnePlus</t>
+  </si>
+  <si>
+    <t>OnePlus 7T (Frosted Silver, 128 GB)</t>
+  </si>
+  <si>
+    <t>OnePlus 7 (Mirror Grey, 128 GB)</t>
+  </si>
+  <si>
+    <t>Honor 9X (Midnight Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>Honor</t>
+  </si>
+  <si>
+    <t>Honor 9N (Robin Egg Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>Asus</t>
+  </si>
+  <si>
+    <t>Asus ROG (Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>Asus 6Z (Silver, 128 GB)</t>
+  </si>
+  <si>
+    <t>Huawei</t>
+  </si>
+  <si>
+    <t>Huawei Y9 Prime 2019 (Sapphire Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>Nexus 6P (Silver, 64 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S9 (Midnight Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>OPPO A7 (Glaring Gold, 64 GB)</t>
+  </si>
+  <si>
+    <t>OPPO F11 Pro (Thunder Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>OPPO</t>
+  </si>
+  <si>
+    <t>Infinix</t>
+  </si>
+  <si>
+    <t>Infinix Hot 9 Pro (Ocean Wave, 64 GB)</t>
+  </si>
+  <si>
+    <t>Infinix S5 Lite (Midnight Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>Nokia 5.1 Plus (Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>Nokia 3310 DS</t>
+  </si>
+  <si>
+    <t>Vivo Z1Pro (Sonic Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>Vivo V5 Plus (Gold, 64 GB)</t>
+  </si>
+  <si>
+    <t>Redmi Note 8 Pro (Halo White, 64 GB)</t>
+  </si>
+  <si>
+    <t>Redmi Note 8 Pro (Gamma Green, 128 GB)</t>
+  </si>
+  <si>
+    <t>Motorola Edge+ (Smoky Sangria, 256 GB)</t>
+  </si>
+  <si>
+    <t>Motorola</t>
+  </si>
+  <si>
+    <t>Motorola Razr (Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>Honor 20 (Midnight Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>Honor 9N (Midnight Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A51 (Prism Crush Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A71 (Prism Crush Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S10 Lite (Prism Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S10 Lite (Prism White, 128 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A51 (Prism Crush White, 128 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A50 (Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A31 (Prism Crush White, 128 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A50 (Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>Realme X (Space Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>Realme 5 Pro (Sparkling Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>Realme 5 Pro (Sparkling Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>Realme Narzo 10 (That White, 128 GB)</t>
+  </si>
+  <si>
+    <t>Realme 6 (Comet White, 64 GB)</t>
+  </si>
+  <si>
+    <t>Realme 5i (Aqua Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>Mi A2 (Red, 128 GB)</t>
+  </si>
+  <si>
+    <t>Mi A3 (More Than White, 128 GB)</t>
+  </si>
+  <si>
+    <t>Redmi K20 Pro (Glacier Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>Redmi Note 7 Pro (Space Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>Redmi K20 Pro (Flame Red, 128 GB)</t>
+  </si>
+  <si>
+    <t>Redmi K20 Pro (Carbon Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>Redmi Note 6 Pro (Red, 64 GB)</t>
+  </si>
+  <si>
+    <t>Redmi Note 8 (Moonlight White, 128 GB)</t>
+  </si>
+  <si>
+    <t>Redmi Note 8 (Cosmic Purple, 128 GB)</t>
+  </si>
+  <si>
+    <t>Redmi K20 Pro (Flame Red, 256 GB)</t>
+  </si>
+  <si>
+    <t>Redmi Note 7 Pro (Neptune Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>Redmi Note 7 Pro (Nebula Red, 128 GB)</t>
+  </si>
+  <si>
+    <t>Redmi K20 Pro (Pearl White, 128 GB)</t>
+  </si>
+  <si>
+    <t>Redmi K20 (Glacier Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>Redmi K20 Pro (Pearl White, 256 GB)</t>
+  </si>
+  <si>
+    <t>Redmi K20 (Carbon Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>Redmi K20 Pro (Carbon Black, 256 GB)</t>
+  </si>
+  <si>
+    <t>Redmi K20 (Carbon Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>Redmi Note 5 Pro (Gold, 64 GB)</t>
+  </si>
+  <si>
+    <t>Redmi Note 8 Pro (Shadow Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>Redmi Note 8 Pro (Shadow Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>Redmi Y3 (Elegant Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>OPPO A52 (Twilight Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>OPPO A31 (Fantasy White, 64 GB)</t>
+  </si>
+  <si>
+    <t>OPPO A31 (Fantasy White, 128 GB)</t>
+  </si>
+  <si>
+    <t>OPPO A31 (Mystery Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>OPPO A12 (Black, 32 GB)</t>
+  </si>
+  <si>
+    <t>OPPO F11 Pro (Thunder Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>OPPO F11 Pro (Aurora Green, 64 GB)</t>
+  </si>
+  <si>
+    <t>OPPO A5 2020 (Mirror Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>OPPO A5 2020 (Dazzling White, 64 GB)</t>
+  </si>
+  <si>
+    <t>OPPO A1K (Black, 32 GB)</t>
+  </si>
+  <si>
+    <t>OPPO F15 (Unicorn White, 128 GB)</t>
+  </si>
+  <si>
+    <t>OPPO K1 (Piano Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>OPPO A9 2020 (Marine Green, 128 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy M11 (Blue, 32 GB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +432,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -124,12 +481,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -192,7 +560,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,7 +595,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,23 +772,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,28 +806,1300 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView showFormulas="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:H62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="6" max="6" width="34.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test_Data.xlsx
+++ b/Test_Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="132">
   <si>
     <t>Product</t>
   </si>
@@ -410,14 +410,23 @@
     <t>OPPO A9 2020 (Marine Green, 128 GB)</t>
   </si>
   <si>
-    <t>Samsung Galaxy M11 (Blue, 32 GB)</t>
+    <t>Samsung Galaxy M11 (Black, 32 GB)</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Power Banks</t>
+  </si>
+  <si>
+    <t>8 GB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +444,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -481,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,6 +514,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,7 +793,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -782,7 +803,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
@@ -811,12 +834,12 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>128</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -913,8 +936,8 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
+      <c r="C7" s="9">
+        <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>11</v>
@@ -1048,7 +1071,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
@@ -1288,7 +1311,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
@@ -1476,13 +1499,13 @@
       <c r="C35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1496,13 +1519,13 @@
       <c r="C36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1516,13 +1539,13 @@
       <c r="C37" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1536,13 +1559,13 @@
       <c r="C38" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1556,13 +1579,13 @@
       <c r="C39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1576,13 +1599,13 @@
       <c r="C40" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>97</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1596,13 +1619,13 @@
       <c r="C41" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>98</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1616,13 +1639,13 @@
       <c r="C42" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1636,13 +1659,13 @@
       <c r="C43" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="4" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1656,13 +1679,13 @@
       <c r="C44" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1676,13 +1699,13 @@
       <c r="C45" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="4" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1696,13 +1719,13 @@
       <c r="C46" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="4" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1716,13 +1739,13 @@
       <c r="C47" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="4" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1736,13 +1759,13 @@
       <c r="C48" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1756,13 +1779,13 @@
       <c r="C49" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="4" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1776,13 +1799,13 @@
       <c r="C50" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="4" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1796,13 +1819,13 @@
       <c r="C51" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1816,13 +1839,13 @@
       <c r="C52" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="4" t="s">
         <v>108</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1836,13 +1859,13 @@
       <c r="C53" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="4" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1856,13 +1879,13 @@
       <c r="C54" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="4" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1876,13 +1899,13 @@
       <c r="C55" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="4" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1896,13 +1919,13 @@
       <c r="C56" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="4" t="s">
         <v>127</v>
       </c>
     </row>

--- a/Test_Data.xlsx
+++ b/Test_Data.xlsx
@@ -410,9 +410,6 @@
     <t>OPPO A9 2020 (Marine Green, 128 GB)</t>
   </si>
   <si>
-    <t>Samsung Galaxy M11 (Black, 32 GB)</t>
-  </si>
-  <si>
     <t>Electronics</t>
   </si>
   <si>
@@ -420,13 +417,16 @@
   </si>
   <si>
     <t>8 GB</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy M11 (Black, 64 GB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,12 +444,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="7"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -496,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -513,9 +507,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -793,7 +784,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -804,10 +795,13 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -834,13 +828,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>128</v>
+      <c r="D2" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -936,7 +930,7 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1071,7 +1065,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
@@ -1311,7 +1305,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>

--- a/Test_Data.xlsx
+++ b/Test_Data.xlsx
@@ -8,11 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="MobileSearch" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MobileSearch!$A$1:$F$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MobileSearch!$A$1:$F$2</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="128">
   <si>
     <t>Product</t>
   </si>
@@ -77,15 +76,9 @@
     <t>6 GB</t>
   </si>
   <si>
-    <t>Samsung Galaxy M01 (Blue, 32 GB)</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
-    <t>3 GB</t>
-  </si>
-  <si>
     <t>2 GB</t>
   </si>
   <si>
@@ -182,15 +175,9 @@
     <t>OnePlus 7 (Mirror Grey, 128 GB)</t>
   </si>
   <si>
-    <t>Honor 9X (Midnight Black, 128 GB)</t>
-  </si>
-  <si>
     <t>Honor</t>
   </si>
   <si>
-    <t>Honor 9N (Robin Egg Blue, 64 GB)</t>
-  </si>
-  <si>
     <t>Asus</t>
   </si>
   <si>
@@ -212,12 +199,6 @@
     <t>Samsung Galaxy S9 (Midnight Black, 64 GB)</t>
   </si>
   <si>
-    <t>OPPO A7 (Glaring Gold, 64 GB)</t>
-  </si>
-  <si>
-    <t>OPPO F11 Pro (Thunder Black, 128 GB)</t>
-  </si>
-  <si>
     <t>OPPO</t>
   </si>
   <si>
@@ -275,9 +256,6 @@
     <t>Samsung Galaxy S10 Lite (Prism White, 128 GB)</t>
   </si>
   <si>
-    <t>Samsung Galaxy A51 (Prism Crush White, 128 GB)</t>
-  </si>
-  <si>
     <t>Samsung Galaxy A50 (Black, 64 GB)</t>
   </si>
   <si>
@@ -287,9 +265,6 @@
     <t>Samsung Galaxy A50 (Blue, 64 GB)</t>
   </si>
   <si>
-    <t>Realme X (Space Blue, 128 GB)</t>
-  </si>
-  <si>
     <t>Realme 5 Pro (Sparkling Blue, 128 GB)</t>
   </si>
   <si>
@@ -359,9 +334,6 @@
     <t>Redmi K20 (Carbon Black, 128 GB)</t>
   </si>
   <si>
-    <t>Redmi Note 5 Pro (Gold, 64 GB)</t>
-  </si>
-  <si>
     <t>Redmi Note 8 Pro (Shadow Black, 64 GB)</t>
   </si>
   <si>
@@ -386,12 +358,6 @@
     <t>OPPO A12 (Black, 32 GB)</t>
   </si>
   <si>
-    <t>OPPO F11 Pro (Thunder Black, 64 GB)</t>
-  </si>
-  <si>
-    <t>OPPO F11 Pro (Aurora Green, 64 GB)</t>
-  </si>
-  <si>
     <t>OPPO A5 2020 (Mirror Black, 64 GB)</t>
   </si>
   <si>
@@ -416,10 +382,31 @@
     <t>Power Banks</t>
   </si>
   <si>
-    <t>8 GB</t>
-  </si>
-  <si>
     <t>Samsung Galaxy M11 (Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>OPPO Reno3 Pro (Midnight Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A21s (Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>Realme Narzo 10 (That Green, 128 GB)</t>
+  </si>
+  <si>
+    <t>Realme 6 Pro (Lightning Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>OPPO F15 (Blazing Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>OPPO A12 (Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>Honor 9N (Sapphire Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>Honor 20 (Sapphire Blue, 128 GB)</t>
   </si>
 </sst>
 </file>
@@ -490,27 +477,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,7 +768,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -828,18 +801,18 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>131</v>
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -848,18 +821,18 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -868,18 +841,18 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -887,19 +860,19 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -907,19 +880,19 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -930,16 +903,16 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -951,10 +924,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
@@ -970,17 +943,17 @@
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -990,17 +963,17 @@
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1010,17 +983,17 @@
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>38</v>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1031,16 +1004,16 @@
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>42</v>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1051,36 +1024,36 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>47</v>
+      <c r="F13" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1090,17 +1063,17 @@
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>52</v>
+      <c r="F15" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1110,17 +1083,17 @@
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>54</v>
+      <c r="E16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1130,17 +1103,17 @@
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1150,17 +1123,17 @@
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>60</v>
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1171,16 +1144,16 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1191,16 +1164,16 @@
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1210,17 +1183,17 @@
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>66</v>
+      <c r="C21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>68</v>
+      <c r="F21" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1230,17 +1203,17 @@
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>67</v>
+      <c r="C22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>69</v>
+      <c r="F22" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1253,14 +1226,14 @@
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>70</v>
+      <c r="D23" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>72</v>
+        <v>29</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1273,14 +1246,14 @@
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>71</v>
+      <c r="D24" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>73</v>
+        <v>29</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1291,36 +1264,36 @@
         <v>16</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1330,17 +1303,17 @@
       <c r="B27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>36</v>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1350,17 +1323,17 @@
       <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>87</v>
+      <c r="C28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1370,17 +1343,17 @@
       <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>88</v>
+      <c r="C29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1390,17 +1363,17 @@
       <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>89</v>
+      <c r="C30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1410,17 +1383,17 @@
       <c r="B31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>90</v>
+      <c r="C31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1430,17 +1403,17 @@
       <c r="B32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>91</v>
+      <c r="C32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1450,17 +1423,17 @@
       <c r="B33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>92</v>
+      <c r="C33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1470,17 +1443,17 @@
       <c r="B34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>91</v>
+      <c r="C34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1490,17 +1463,17 @@
       <c r="B35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>112</v>
+      <c r="C35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1510,17 +1483,17 @@
       <c r="B36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>32</v>
+      <c r="C36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1530,17 +1503,17 @@
       <c r="B37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>72</v>
+      <c r="C37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1550,17 +1523,17 @@
       <c r="B38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>113</v>
+      <c r="C38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1570,17 +1543,17 @@
       <c r="B39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>113</v>
+      <c r="C39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1590,17 +1563,17 @@
       <c r="B40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>73</v>
+      <c r="C40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1610,17 +1583,17 @@
       <c r="B41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1630,17 +1603,17 @@
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>73</v>
+      <c r="C42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1650,17 +1623,17 @@
       <c r="B43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>114</v>
+      <c r="C43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1670,17 +1643,17 @@
       <c r="B44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>115</v>
+      <c r="C44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1690,17 +1663,17 @@
       <c r="B45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>116</v>
+      <c r="C45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1710,17 +1683,17 @@
       <c r="B46" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>117</v>
+      <c r="C46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1730,17 +1703,17 @@
       <c r="B47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>118</v>
+      <c r="C47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1750,17 +1723,17 @@
       <c r="B48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>119</v>
+      <c r="C48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1770,17 +1743,17 @@
       <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>120</v>
+      <c r="C49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1790,17 +1763,17 @@
       <c r="B50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>121</v>
+      <c r="C50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1810,17 +1783,17 @@
       <c r="B51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>122</v>
+      <c r="C51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1830,17 +1803,17 @@
       <c r="B52" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>123</v>
+      <c r="C52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1850,17 +1823,17 @@
       <c r="B53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>124</v>
+      <c r="C53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1870,17 +1843,17 @@
       <c r="B54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>125</v>
+      <c r="C54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1890,17 +1863,17 @@
       <c r="B55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>126</v>
+      <c r="C55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1910,17 +1883,17 @@
       <c r="B56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>127</v>
+      <c r="C56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1931,24 +1904,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:H62"/>
+    <sheetView showFormulas="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1984,16 +1943,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2001,19 +1960,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2021,18 +1980,18 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2041,19 +2000,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2061,62 +2020,1023 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>15</v>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>